--- a/Budget of materials.xlsx
+++ b/Budget of materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M228544\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M220404\Documents\CNC-Lathe-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,11 +852,13 @@
       <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="17">
+        <v>200</v>
+      </c>
       <c r="F4" s="18"/>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>28</v>
@@ -877,11 +879,13 @@
       <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17">
+        <v>200</v>
+      </c>
       <c r="F5" s="18"/>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>28</v>
@@ -902,11 +906,13 @@
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>200</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>28</v>
@@ -927,11 +933,13 @@
       <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>200</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>28</v>
@@ -1348,7 +1356,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="49">
         <f>SUM(G2:G22)</f>
-        <v>5894.634</v>
+        <v>6694.634</v>
       </c>
       <c r="I23" s="50">
         <f>SUM(I2:I22)</f>

--- a/Budget of materials.xlsx
+++ b/Budget of materials.xlsx
@@ -146,15 +146,9 @@
     <t>Inductor sensor</t>
   </si>
   <si>
-    <t>RS Australia</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
-    <t>South Metropolitan TAFE</t>
-  </si>
-  <si>
     <t>ip67 - homing</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>General Mechatronics</t>
+  </si>
+  <si>
+    <t>SMTAFE</t>
+  </si>
+  <si>
+    <t>RSA</t>
   </si>
 </sst>
 </file>
@@ -304,14 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -327,7 +324,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,107 +334,104 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -725,669 +718,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="J1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="24">
         <v>300</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="24">
         <f>E2*0.1*2</f>
         <v>60</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="24">
         <f>(D2*E2)+F2</f>
         <v>660</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="25">
         <v>100</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="24">
         <v>250</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="24">
         <f>E3*0.1*2</f>
         <v>50</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="24">
         <f t="shared" ref="G3:G22" si="0">(D3*E3)+F3</f>
         <v>550</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>200</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E7" s="11">
         <v>200</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="14">
+      <c r="F7" s="12"/>
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="I7" s="24"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17">
-        <v>200</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="14">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="17">
-        <v>200</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="E8" s="29">
+        <v>319</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="28">
+        <v>11</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22">
+        <v>192.5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>577.5</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="24">
+        <v>11</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
-        <v>200</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="E13" s="17">
+        <v>837</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="18">
+        <v>13</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="E14" s="20">
+        <v>100</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="17">
-        <v>319</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="19">
-        <v>11</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="48">
-        <v>192.5</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>577.5</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="19">
-        <v>11</v>
-      </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
-        <v>837</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33">
-        <f t="shared" si="0"/>
-        <v>837</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="35">
-        <v>13</v>
-      </c>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="39">
-        <v>100</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="E15" s="28">
         <v>799</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="28">
         <f>0.1*E15</f>
         <v>79.900000000000006</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="28">
         <f t="shared" si="0"/>
         <v>878.9</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="28">
         <f>18.5+18.5*0.1</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10">
         <v>1</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="H16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10">
         <v>4</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="24">
         <v>23.46</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <f>E17*0.1*D17</f>
         <v>9.3840000000000003</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>103.224</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="H17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="24">
         <v>36.53</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="42">
         <f>E18*0.1*D18</f>
         <v>7.3060000000000009</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="24">
         <f t="shared" si="0"/>
         <v>80.366</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="H18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="24">
         <v>25</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="12">
         <f>E19*0.1</f>
         <v>2.5</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="24">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="H19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="24">
         <v>17.54</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="42">
         <f>E20*0.1</f>
         <v>1.754</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>19.294</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="H20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10">
         <v>1</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="24">
         <v>1523.5</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="12">
         <f>0.1*E21</f>
         <v>152.35</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="24">
         <f t="shared" si="0"/>
         <v>1675.85</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="46">
+      <c r="H21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="24">
         <f>2000-G21</f>
         <v>324.15000000000009</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13">
+      <c r="J21" s="10"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="24">
         <v>30</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="12">
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="24">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="46">
+      <c r="H22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="24">
         <v>50</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="49">
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="23">
         <f>SUM(G2:G22)</f>
         <v>6694.634</v>
       </c>
-      <c r="I23" s="50">
+      <c r="H23" s="5"/>
+      <c r="I23" s="43">
         <f>SUM(I2:I22)</f>
         <v>529.50000000000011</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="5"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
-      <c r="G26" s="5"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
-      <c r="G27" s="5"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="9"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="8"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="32"/>
+      <c r="G28" s="37"/>
+      <c r="I28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1397,6 +1447,6 @@
     <hyperlink ref="J15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>